--- a/Scrape/Sasi/SasiEyesEng.xlsx
+++ b/Scrape/Sasi/SasiEyesEng.xlsx
@@ -110,7 +110,7 @@
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>1716265827-1</t>
+          <t>1717926297-1</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
@@ -135,12 +135,12 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>https://www.konvy.com/mizumi/mizumi-uv-bright-body-serum-180ml-71109.html</t>
+          <t>https://www.konvy.com/the-ordinary/the-ordinary-alpha-arbutin-2-%2b-ha-serum-30ml-24342.html</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>https://s2.konvy.com/static/team/2022/0408/16493934299808.jpg</t>
+          <t>https://s2.konvy.com/static/team/2023/0825/16929373414648.jpg.webp</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
@@ -150,14 +150,14 @@
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t>Mizumi Uv Bright Body Serum 180ml Sunscreen for the body from Mizumi, protecting the skin from UV rays. Along with nourishing the skin with cherry blossom extracts and Kakadu Plum, revealing radiant skin.</t>
+          <t>The Ordinary Alpha Arbutin 2% + HA Serum 30ml, a water-based serum specifically designed to reduce the appearance of dark spots and uneven skin tone. Combines a high concentration of pure alpha arbutin with hyaluronic acid. Reduce dark spots Serum texture absorbs quickly. Helps the skin look radiant. Acne scars appear faded. Skin looks healthy</t>
         </is>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>1716265829-2</t>
+          <t>1717926299-2</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
@@ -182,12 +182,12 @@
       </c>
       <c r="F3" s="1" t="inlineStr">
         <is>
-          <t>https://www.konvy.com/oni/oni-4-blades-smooth-razor-set-2-refills-87155.html</t>
+          <t>https://www.konvy.com/nu-formula/nu-formula-pro-white-essence-lotion-%5b150ml-x-2pcs%5d-98077.html</t>
         </is>
       </c>
       <c r="G3" s="1" t="inlineStr">
         <is>
-          <t/>
+          <t>https://s2.konvy.com/static/team/2024/0528/17168664361033.jpg.webp</t>
         </is>
       </c>
       <c r="H3" s="1" t="inlineStr">
@@ -197,14 +197,14 @@
       </c>
       <c r="I3" s="1" t="inlineStr">
         <is>
-          <t>Oni 4 Blades Smooth Razor Set 2 Refills Oni razor for women with 2 blades, can be used even with sensitive skin, 4 razor blades, shave gently. The razor head adapts perfectly to the contours of the skin. Has a lubricating strip to help shave with a touch of aloe vera and vitamin E.</t>
+          <t>Nu Formula Pro White Essence Lotion [150ml x 2pcs] Brightening skin boost essence from Nu Formula with Active White Booster with 3in1 function of essence + Lotion + Ampoule Concentrated but light formula, absorbs quickly, doesn't clog the skin, deeply nourishes in one step.</t>
         </is>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1716265831-3</t>
+          <t>1717926302-3</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
@@ -229,12 +229,12 @@
       </c>
       <c r="F4" s="1" t="inlineStr">
         <is>
-          <t>https://www.konvy.com/jkxlab/jkxlab-ex-a-body-cream-200g-90464.html</t>
+          <t>https://www.konvy.com/laneige/laneige-set-2-items-lip-sleeping-mask-mini-8g-%2b-lip-sleeping-mask-3g-53514.html</t>
         </is>
       </c>
       <c r="G4" s="1" t="inlineStr">
         <is>
-          <t>https://s2.konvy.com/static/team/2023/0925/16956258361121.jpg</t>
+          <t>https://s2.konvy.com/static/team/2024/0101/17040446796184.jpg.webp</t>
         </is>
       </c>
       <c r="H4" s="1" t="inlineStr">
@@ -244,14 +244,14 @@
       </c>
       <c r="I4" s="1" t="inlineStr">
         <is>
-          <t>JKxLab EX-A Body Cream 200g, concentrated body cream. From JKX Lab, special with 10% AHA, exfoliates old skin like opening new skin, creating clear skin, softening the skin, and enhancing the skin's layers to make it smooth.</t>
+          <t>Laneige Set 2 Items Lip Sleeping Mask Mini 8g + Lip Sleeping Mask 3g Moisturized, plump, kissable lips with Laneige Lip Sleeping Mask. Deeply nourish and enhance your lips with a rich lip mask that reduces dryness. Revitalize your lips to be soft and smooth to the touch when you wake up.</t>
         </is>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>1716265834-4</t>
+          <t>1717926304-4</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
@@ -276,12 +276,12 @@
       </c>
       <c r="F5" s="1" t="inlineStr">
         <is>
-          <t>https://www.konvy.com/some-by-mi/some-by-mi-aha-bha-pha-30days-miracle-serum-light-50ml-60288.html</t>
+          <t>https://www.konvy.com/la-roche-posay/la-roche-posay-anthelios-uv-mune-400-invisible-fluid-50ml-78078.html</t>
         </is>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
-          <t/>
+          <t>https://s2.konvy.com/static/team/2022/1027/16668451048530.jpg.webp</t>
         </is>
       </c>
       <c r="H5" s="1" t="inlineStr">
@@ -291,14 +291,14 @@
       </c>
       <c r="I5" s="1" t="inlineStr">
         <is>
-          <t>Some By Mi AHA-BHA-PHA 30Days Miracle Serum Light 50ml Easily manage all skin problems with this lightweight facial serum from Sambami, which contains the main ingredients from nature. which is gentle on all skin types Helps exfoliate skin cells, reduce acne and tighten pores Reveal brighter skin</t>
+          <t>La Roche Posay Anthelios UV Mune 400 Invisible Fluid 50ml, a lightweight, non-greasy, fluid sunscreen from La Roche Posay that protects skin from harmful UV rays including Ultra-Long Infrared UVA, dust and pollution.</t>
         </is>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>1716265837-5</t>
+          <t>1717926308-5</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
@@ -323,12 +323,12 @@
       </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
-          <t>https://www.konvy.com/biotherm/biotherm-life-plankton-essence-30ml-48511.html</t>
+          <t>https://www.konvy.com/anua/anua-heartleaf-77-soothing-toner-500ml-77436.html</t>
         </is>
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
-          <t/>
+          <t>https://s2.konvy.com/static/team/2022/0929/16644419475444.jpg.webp</t>
         </is>
       </c>
       <c r="H6" s="1" t="inlineStr">
@@ -338,14 +338,14 @@
       </c>
       <c r="I6" s="1" t="inlineStr">
         <is>
-          <t>Biotherm Life Plankton Essence 30ml Lifetime favorite life plankton water. from Biotherm Essence with a refreshing texture as light as water. Enriched with 5% Life Plankton ingredients to soothe and reduce skin irritation. Gently exfoliates dead and dull skin cells tighten pores Skin is more refined and radiant. Reveals radiant, youthful-looking skin</t>
+          <t>ANUA Heartleaf 77% Soothing Toner 500ml, big size, satisfying! With the hottest toner from the Twitter world that anyone who has tried it will love it from Anoa to help soothe the skin and reduce inflammation. with extracts of heart leaf to 77% Light texture. Free from fragrances and harmful chemicals Suitable for all skin types especially irritated skin Acne and rashes</t>
         </is>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>1716265839-6</t>
+          <t>1717926310-6</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
@@ -370,12 +370,12 @@
       </c>
       <c r="F7" s="1" t="inlineStr">
         <is>
-          <t>https://www.konvy.com/biotherm/biotherm-life-plankton-elixir-fundamental-regenerating-treatment-7ml-53686.html</t>
+          <t>https://www.konvy.com/la-roche-posay/la-roche-posay-effaclar-serum-30ml-52478.html</t>
         </is>
       </c>
       <c r="G7" s="1" t="inlineStr">
         <is>
-          <t>https://s2.konvy.com/static/team/2022/0606/16545090898804.jpg</t>
+          <t>https://s2.konvy.com/static/team/2020/1027/16037906661187.jpg.webp</t>
         </is>
       </c>
       <c r="H7" s="1" t="inlineStr">
@@ -385,14 +385,14 @@
       </c>
       <c r="I7" s="1" t="inlineStr">
         <is>
-          <t>Biotherm Life Plankton Elixir Fundamental Regenerating Treatment 7ml Ultimate rejuvenation with plankton serum. From Biotherm with LIFE PLANKTON ™ in a concentration of 5%^ helps to strengthen the skin. Take care of the aging of the skin. It also helps the skin look younger, brighter, firmer and smoother.</t>
+          <t>La Roche Posay Effaclar Serum 30ml, a powerful serum from La Roche-Posay with the power of 3 molecules for managing the root cause of clogged pores and dark spots caused by acne. Help soothe Provides comfortable moisture to the skin with Niacinamide.</t>
         </is>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>1716265842-7</t>
+          <t>1717926313-7</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -417,12 +417,12 @@
       </c>
       <c r="F8" s="1" t="inlineStr">
         <is>
-          <t>https://www.konvy.com/cerave/cerave-facial-moisturizing-lotion-52ml-37951.html</t>
+          <t>https://www.konvy.com/estee-lauder/estee-lauder-revitalizing-supreme%2b-bright-power-soft-creme-15ml-79776.html</t>
         </is>
       </c>
       <c r="G8" s="1" t="inlineStr">
         <is>
-          <t>https://s2.konvy.com/static/team/2024/0101/17040423499813.jpg</t>
+          <t>https://s2.konvy.com/static/team/2023/0208/16758286715251.jpg.webp</t>
         </is>
       </c>
       <c r="H8" s="1" t="inlineStr">
@@ -432,14 +432,14 @@
       </c>
       <c r="I8" s="1" t="inlineStr">
         <is>
-          <t>CeraVe Facial Moisturizing Lotion 52ml facial lotion For normal to dry skin from Cerave, rich in 3 types of ceramides necessary for the skin combined with hyaluronic acid. Helps replenish moisture and strengthen the skin's protective barrier. For a smooth, soft touch that lasts all day.</t>
+          <t>Estee Lauder Revitalizing Supreme+ Bright Power Soft Creme 15ml Moisturizer, a new formula for brightening skin from Estee Lauder, combines the power of nourishment from 3 powerful extracts, Moringa Beauty Bea. And vitamin C help reduce dark spots. and gives the skin a smooth, consistent look natural bright glow</t>
         </is>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>1716265844-8</t>
+          <t>1717926315-8</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
@@ -464,12 +464,12 @@
       </c>
       <c r="F9" s="1" t="inlineStr">
         <is>
-          <t>https://www.konvy.com/hatomugi/hatomugi-skin-conditioner-gel-180g-16125.html</t>
+          <t>https://www.konvy.com/la-mer/la-mer-the-treatment-lotion-30ml-62144.html</t>
         </is>
       </c>
       <c r="G9" s="1" t="inlineStr">
         <is>
-          <t>https://s2.konvy.com/static/team/2024/0101/17040426442600.jpg</t>
+          <t>https://s2.konvy.com/static/team/2022/0909/16626905612806.jpg.webp</t>
         </is>
       </c>
       <c r="H9" s="1" t="inlineStr">
@@ -479,14 +479,14 @@
       </c>
       <c r="I9" s="1" t="inlineStr">
         <is>
-          <t>Hatomugi Skin Conditioner Gel 180g Make your skin look full of water, beautiful, glowing, look healthy with a nourishing gel from Hatomugi that contains extracts from natural barley and millet. Helps retain moisture for the skin for a long time. It also helps reduce sunburn symptoms as well.</t>
+          <t>La Mer the Treatment Lotion 30ml For the next step, take care of this water-based body lotion from La Mer. Gives skin a feeling of vitality with Liquid Energy that helps the product absorb quickly into the skin. moisturize Gives skin a soft, smooth, even appearance</t>
         </is>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>1716265847-9</t>
+          <t>1717926333-9</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
@@ -511,12 +511,12 @@
       </c>
       <c r="F10" s="1" t="inlineStr">
         <is>
-          <t>https://www.konvy.com/atopalm/atopalm-mle-lotion-120ml-70526.html</t>
+          <t>https://www.konvy.com/anua/anua-heartleaf-77-soothing-toner-250ml-49595.html</t>
         </is>
       </c>
       <c r="G10" s="1" t="inlineStr">
         <is>
-          <t/>
+          <t>https://s2.konvy.com/static/team/2023/0220/16768811132057.jpg</t>
         </is>
       </c>
       <c r="H10" s="1" t="inlineStr">
@@ -526,14 +526,14 @@
       </c>
       <c r="I10" s="1" t="inlineStr">
         <is>
-          <t>ATOPALM Mle Lotion 120ml Facial and body lotion formulated with MLEâ from Atopalm to help strengthen the epidermis. Keeps skin hydrated for up to 48 hours with Neofarm's patented ceramides, 5 types of amino acids and hyaluronic acid.</t>
+          <t>ANUA Heartleaf 77% Soothing Toner 250ml The hottest toner from the Twitter world that anyone who has tried it will love it from Anua to help soothe the skin and reduce inflammation. with extracts of heart leaf to 77% Light texture. Free from fragrances and harmful chemicals Suitable for all skin types especially irritated skin Acne and rashes</t>
         </is>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>1716265849-10</t>
+          <t>1717926335-10</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
@@ -553,17 +553,17 @@
       </c>
       <c r="E11" s="1" t="inlineStr">
         <is>
-          <t/>
+          <t>Free</t>
         </is>
       </c>
       <c r="F11" s="1" t="inlineStr">
         <is>
-          <t>https://www.konvy.com/chame/chame-hydrolyzed-collagen-tripeptide-plus-10-sachets-39394.html</t>
+          <t>https://www.konvy.com/bioderma/bioderma-sensibio-h2o-cleansing-%5b500ml-x-2pcs%5d-14863.html</t>
         </is>
       </c>
       <c r="G11" s="1" t="inlineStr">
         <is>
-          <t>https://s2.konvy.com/static/team/2022/0704/16569275054332.jpg</t>
+          <t>https://s2.konvy.com/static/team/2024/0101/17040426648129.jpg.webp</t>
         </is>
       </c>
       <c r="H11" s="1" t="inlineStr">
@@ -573,14 +573,14 @@
       </c>
       <c r="I11" s="1" t="inlineStr">
         <is>
-          <t>Chame Hydrolyzed Collagen Tripeptide Plus 10 Sachet Powdered Collagen Dietary Supplement Strawberry flavor from Chame</t>
+          <t>Bioderma Sensibio H2O Cleansing [500ml x 2pcs] Biomimetic Cleansing Micellar Water Gentle cleansing formula For sensitive skin Cleans deeply and gently because the skin is exposed to friction, cosmetics, PM2.5 dust, as well as sweat and bacteria that stimulate acne and allergic skin.</t>
         </is>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>1716265851-11</t>
+          <t>1717926337-11</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
@@ -605,12 +605,12 @@
       </c>
       <c r="F12" s="1" t="inlineStr">
         <is>
-          <t>https://www.konvy.com/oni/oni-sweats-%26-oil-blotting-paper-100-sheets-rose-93867.html</t>
+          <t>https://www.konvy.com/loccitane/l%27occitane-immortelle-overnight-reset-oil-in-serum-50ml-%5bnew-formula%5d-42050.html</t>
         </is>
       </c>
       <c r="G12" s="1" t="inlineStr">
         <is>
-          <t>https://s2.konvy.com/static/team/2024/0422/17137744954489.jpg</t>
+          <t>https://s2.konvy.com/static/team/2023/0202/16753097415435.jpg.webp</t>
         </is>
       </c>
       <c r="H12" s="1" t="inlineStr">
@@ -620,14 +620,14 @@
       </c>
       <c r="I12" s="1" t="inlineStr">
         <is>
-          <t>Oni Sweats &amp; Oil Blotting Paper 100 Sheets #Rose Soft blotting paper from Oni helps absorb excess oil on the face very well. Gentle on the skin Does not cause irritation Packaged in a nice envelope, cute, convenient, easy to carry.</t>
+          <t>L'Occitane Immortelle Overnight Reset Oil-in-serum 50ml (New Formula) allows you to experience younger looking skin. Bright with the number 1 best-selling product that has been sold worldwide more than 1 bottle per minute with serum oil from L'Occitane to help shallow wrinkles look fuller. ready to reveal fuller skin Brighten the skin Shining aura every day</t>
         </is>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>1716265854-12</t>
+          <t>1717926340-12</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="F13" s="1" t="inlineStr">
         <is>
-          <t>https://www.konvy.com/jkxlab/jkxlab-rp-retinoids-peptides-serum-30ml-90463.html</t>
+          <t>https://www.konvy.com/la-mer/la-mer-the-moisturizing-cream-3.5ml-2390.html</t>
         </is>
       </c>
       <c r="G13" s="1" t="inlineStr">
         <is>
-          <t>https://s2.konvy.com/static/team/2023/0925/16956251509582.jpg</t>
+          <t>https://s2.konvy.com/static/team/2023/0829/16932966918637.jpg.webp</t>
         </is>
       </c>
       <c r="H13" s="1" t="inlineStr">
@@ -667,14 +667,14 @@
       </c>
       <c r="I13" s="1" t="inlineStr">
         <is>
-          <t>JKxLab RP Retinoids Peptides Serum 30ml, a retinoid serum designed to answer the needs of those with premature aging. There is sagging of the skin. From JKX Lab Concentrated with Vitamin A derivative Retinoid x2 in a special gentle form. Suitable for people with sensitive skin. Passed the irritation test.</t>
+          <t>La Mer The Moisturizing Cream 3.5ml skin care moisturizer Rich cream texture Provides deep nourishment with concentrated Miracle Broth™ water, the key to La Mer's skin revitalization. Provides deep moisture Make the skin look lively and radiant.</t>
         </is>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>1716265856-13</t>
+          <t>1717926342-13</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
@@ -699,12 +699,12 @@
       </c>
       <c r="F14" s="1" t="inlineStr">
         <is>
-          <t>https://www.konvy.com/nars/nars-soft-matte-complete-concealer-6.2g-medium-1-custard-40706.html</t>
+          <t>https://www.konvy.com/lion/lion-pair-acne-cream-w-24g-6706.html</t>
         </is>
       </c>
       <c r="G14" s="1" t="inlineStr">
         <is>
-          <t>https://s2.konvy.com/static/team/2019/0826/15668115322264.jpg</t>
+          <t>https://s2.konvy.com/static/team/2024/0305/17096252653997.jpg.webp</t>
         </is>
       </c>
       <c r="H14" s="1" t="inlineStr">
@@ -714,14 +714,14 @@
       </c>
       <c r="I14" s="1" t="inlineStr">
         <is>
-          <t>NARS Soft Matte Complete Concealer 6.2g #Medium 1 Custard Creamy concealer with an oil-free formula from NARS helps conceal well without leaving a stain. With Optimal Diffusion Powder technology, it helps diffuse light and cover various marks, smooth, beautiful, and long-lasting.</t>
+          <t>Lion Pair Acne Cream W 24g Acne cream from Japan from Lion reduces swelling and redness due to inflamed acne. Helps acne disappear faster and does not leave scars after the acne disappears. It also reduces the incidence of acne.</t>
         </is>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>1716265858-14</t>
+          <t>1717926344-14</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
@@ -746,12 +746,12 @@
       </c>
       <c r="F15" s="1" t="inlineStr">
         <is>
-          <t>https://www.konvy.com/bvlgari/bvlgari-man-in-black-edp-60ml-80741.html</t>
+          <t>https://www.konvy.com/nu-formula/nu-formula-mineral-cleansing-water-for-sensitive-skin-510ml-5063.html</t>
         </is>
       </c>
       <c r="G15" s="1" t="inlineStr">
         <is>
-          <t/>
+          <t>https://s2.konvy.com/static/team/2023/1130/17013325342201.jpg.webp</t>
         </is>
       </c>
       <c r="H15" s="1" t="inlineStr">
@@ -761,14 +761,14 @@
       </c>
       <c r="I15" s="1" t="inlineStr">
         <is>
-          <t>Bvlgari Man in Black EDP 60ml, a men's perfume from Bulgari, has a captivating scent that expresses sensuality, elegance, and sophistication of the male gender. which has an unexpected smell</t>
+          <t>Nu Formula Mineral Cleansing Water For Sensitive Skin 510ml No. 1 cleansing water for sensitive skin that users are satisfied with and tell the most. Clean thoroughly without rinsing. More than 100 beauty bloggers who have tried it are recommended.</t>
         </is>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>1716265861-15</t>
+          <t>1717926347-15</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="F16" s="1" t="inlineStr">
         <is>
-          <t>https://www.konvy.com/propolinse/propolinse-premium-mouthwash-600ml-78152.html</t>
+          <t>https://www.konvy.com/nars/nars-light-reflecting-pressed-setting-powder-10g-crystal-73299.html</t>
         </is>
       </c>
       <c r="G16" s="1" t="inlineStr">
         <is>
-          <t>https://s2.konvy.com/static/team/2022/1018/16660919138565.jpg</t>
+          <t/>
         </is>
       </c>
       <c r="H16" s="1" t="inlineStr">
@@ -808,14 +808,14 @@
       </c>
       <c r="I16" s="1" t="inlineStr">
         <is>
-          <t>PROPOLINSE Premium Mouthwash 600ml Propolis Mouthwash New innovations invented from Japan. Premium formula alcohol free Helps eliminate bacteria in the mouth up to 99.9% and effective oral care</t>
+          <t>NARS Light Reflecting Pressed Setting Powder 10g #Crystal Lock your makeup perfectly. With a lightweight pressed powder from NARS enhances the light reflecting effect on the skin. and helps control shine throughout the day Suitable for daytime touch-ups.</t>
         </is>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>1716265863-16</t>
+          <t>1717926349-16</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
@@ -840,12 +840,12 @@
       </c>
       <c r="F17" s="1" t="inlineStr">
         <is>
-          <t>https://www.konvy.com/bobbi-brown/bobbi-brown-gua-sha-stone-75990.html</t>
+          <t>https://www.konvy.com/gravich/gravich-triple-vitamin-c-booster-serum-30ml-48037.html</t>
         </is>
       </c>
       <c r="G17" s="1" t="inlineStr">
         <is>
-          <t>https://s2.konvy.com/static/team/2022/0908/16626265256214.jpg</t>
+          <t>https://s2.konvy.com/static/team/2024/0101/17040420033552.jpg.webp</t>
         </is>
       </c>
       <c r="H17" s="1" t="inlineStr">
@@ -855,14 +855,14 @@
       </c>
       <c r="I17" s="1" t="inlineStr">
         <is>
-          <t>Bobbi Brown Gua Sha Stone Gua Sha for facial massage from Bobbi Brown is made of Rose Quartz stone, heart-shaped, strong. It is designed to be comfortable to hold in your hand. Helps to relax the skin Stimulate muscles to look firmer For skin that looks radiant and healthy.</t>
+          <t>GRAVICH Triple Vitamin C Booster Serum 30ml Rejuvenate your skin with concentrated vitamin C serum from Gravich that stimulates the epidermis layer to gently exfoliate. For glowing skin, wrinkles, dark spots look faded. along with enhancing and stimulating the process of creating collagen Contains high antioxidants Make the skin healthy and bright.</t>
         </is>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>1716265865-17</t>
+          <t>1717926352-17</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
@@ -882,17 +882,17 @@
       </c>
       <c r="E18" s="1" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t/>
         </is>
       </c>
       <c r="F18" s="1" t="inlineStr">
         <is>
-          <t>https://www.konvy.com/eucerin/eucerin-spotless-brightening-booster-serum-30ml-59573.html</t>
+          <t>https://www.konvy.com/lancome/lancome-advanced-genifique-youth-activating-concentrate-7ml-3899.html</t>
         </is>
       </c>
       <c r="G18" s="1" t="inlineStr">
         <is>
-          <t>https://s2.konvy.com/static/team/2023/1231/17040415741268.jpg</t>
+          <t>https://s2.konvy.com/static/team/2021/0514/16209958446414.jpg.webp</t>
         </is>
       </c>
       <c r="H18" s="1" t="inlineStr">
@@ -902,14 +902,14 @@
       </c>
       <c r="I18" s="1" t="inlineStr">
         <is>
-          <t>Eucerin Spotless Brightening Booster Serum 30ml, the number 1 dark spot reduction serum innovation from Eucerin with micro target technology that penetrates deep into the skin layer, combines THIAMIDOL to help reduce sunburn, deep blemishes and dark spots at the root well and HYALURON for fuller, glowing skin.</t>
+          <t>Lancome Advanced Genifique Youth Activating Concentrate 7ml Balancing for healthy skin. and beautiful as ever with serum from Lancome Ready to restore quickly Give you youthful skin again.</t>
         </is>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>1716265868-18</t>
+          <t>1717926354-18</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
@@ -929,17 +929,17 @@
       </c>
       <c r="E19" s="1" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t/>
         </is>
       </c>
       <c r="F19" s="1" t="inlineStr">
         <is>
-          <t>https://www.konvy.com/bioderma/%5b%e0%b9%81%e0%b8%9e%e0%b9%87%e0%b8%84%e0%b8%84%e0%b8%b9%e0%b9%88%5d-bioderma-sensibio-h2o-cleansing-500ml-14863.html</t>
+          <t>https://www.konvy.com/the-ordinary/the-ordinary-aha-30-%2b-bha-2-peeling-solution-30ml-24341.html</t>
         </is>
       </c>
       <c r="G19" s="1" t="inlineStr">
         <is>
-          <t>https://s2.konvy.com/static/team/2024/0101/17040426648129.jpg</t>
+          <t>https://s2.konvy.com/static/team/2023/0601/16855877937330.jpg.webp</t>
         </is>
       </c>
       <c r="H19" s="1" t="inlineStr">
@@ -949,14 +949,14 @@
       </c>
       <c r="I19" s="1" t="inlineStr">
         <is>
-          <t>[Twin Pack] Bioderma Sensibio H2O Cleansing 500ml Biomimetic Cleansing Micellar Water Gentle cleansing formula For sensitive skin Cleans deeply and gently because the skin is exposed to friction, cosmetics, PM2.5 dust, as well as sweat and bacteria that stimulate acne and allergic skin.</t>
+          <t>The Ordinary AHA 30% + BHA 2% Peeling Solution 30ml Peeling Di Auditory, the best item from England that foreign bloggers use in every clip! It helps to get rid of the dirt very well. Reduce clogging and acne wrinkles look faded Brighten the skin and add moisture to the skin</t>
         </is>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>1716265870-19</t>
+          <t>1717926356-19</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
@@ -981,12 +981,12 @@
       </c>
       <c r="F20" s="1" t="inlineStr">
         <is>
-          <t>https://www.konvy.com/la-mer/la-mer-the-treatment-lotion-30ml-%5bno-box%5d-91682.html</t>
+          <t>https://www.konvy.com/la-roche-posay/la-roche-posay-effaclar-duo%2bm-40ml-91629.html</t>
         </is>
       </c>
       <c r="G20" s="1" t="inlineStr">
         <is>
-          <t>https://s2.konvy.com/static/team/2023/1108/16994194403649.jpg</t>
+          <t>https://s2.konvy.com/static/team/2023/1231/17040396863841.jpg.webp</t>
         </is>
       </c>
       <c r="H20" s="1" t="inlineStr">
@@ -996,14 +996,14 @@
       </c>
       <c r="I20" s="1" t="inlineStr">
         <is>
-          <t>La Mer the Treatment Lotion 30ml [no box] For the next step of nourishment, take care of it with a water-based skin care lotion from La Mer. Gives a feeling of vitality to the skin with Liquid Energy that helps the product absorb into the skin quickly. Moisturize Makes the skin look soft, smooth and even.</t>
+          <t>La Roche Posay Effaclar DUO+M 40ml Moisturizer formula for oily, acne-prone skin from La Roche-Posay helps reduce acne problems. Helps with dark spots and red spots from acne. Looks faded and reduces the chance of acne recurring. Tested to be effective but gentle on the skin. Does not cause blockage</t>
         </is>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>1716265873-20</t>
+          <t>1717926359-20</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
@@ -1028,12 +1028,12 @@
       </c>
       <c r="F21" s="1" t="inlineStr">
         <is>
-          <t>https://www.konvy.com/skintific/skintific-mugwort-anti-pores-%26-acne-clay-stick-40g-96470.html</t>
+          <t>https://www.konvy.com/estee-lauder/estee-lauder-revitalizing-supreme%2b-youth-power-soft-creme-15ml-73205.html</t>
         </is>
       </c>
       <c r="G21" s="1" t="inlineStr">
         <is>
-          <t>https://s2.konvy.com/static/team/2024/0412/17128907257513.jpg</t>
+          <t>https://s2.konvy.com/static/team/2022/0621/16557799473929.jpg.webp</t>
         </is>
       </c>
       <c r="H21" s="1" t="inlineStr">
@@ -1043,14 +1043,14 @@
       </c>
       <c r="I21" s="1" t="inlineStr">
         <is>
-          <t>SKINTIFIC Mugwort Anti Pores &amp; Acne Clay Stick 40g Clay mask stick from Skintific, containing ginger ginger. Helps take care of acne problems, combining Niacinamide, Salicylic Acid and Centella to help control excess oil. Deeply cleans pores. and soothe the skin</t>
+          <t>Estee Lauder Revitalizing Supreme+ Youth Power Soft Creme 15ml A lightweight moisturizer from Estee Lauder that helps enhance the effectiveness of collagen. AND NEW POWERFUL INGREDIENTS EXCLUSIVE HIBISCUS-8 FRACTION AND EXCLUSIVE MORINGA EXTRACT.</t>
         </is>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>1716265875-21</t>
+          <t>1717926361-21</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
@@ -1075,12 +1075,12 @@
       </c>
       <c r="F22" s="1" t="inlineStr">
         <is>
-          <t>https://www.konvy.com/konvy/konvy-facial-cotton-150pcs-74722.html</t>
+          <t>https://www.konvy.com/konvy/konvy-portable-retro-bluetooth-speaker-pink-83240.html</t>
         </is>
       </c>
       <c r="G22" s="1" t="inlineStr">
         <is>
-          <t>https://s2.konvy.com/static/team/2022/0829/16617620357445.jpg</t>
+          <t>https://s2.konvy.com/static/team/2023/0516/16842054217986.jpg.webp</t>
         </is>
       </c>
       <c r="H22" s="1" t="inlineStr">
@@ -1090,14 +1090,14 @@
       </c>
       <c r="I22" s="1" t="inlineStr">
         <is>
-          <t>Konvy Facial Cotton 150pcs for every skin care day with a thin cotton pad For the face, especially from Conwy, made from natural materials. Soft touch skin, fine, not flaky, gentle, skin care, does not cause irritation.</t>
+          <t>Konvy Portable Retro Bluetooth Speaker #Pink Retro to the 1950s with a pink portable Bluetooth speaker, outstanding, unique vintage design! From Convy delivers loud and clear sound. Both beautiful and comfortable to carry to activities. Suitable for decoration or collection.</t>
         </is>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>1716265877-22</t>
+          <t>1717926363-22</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
@@ -1122,12 +1122,12 @@
       </c>
       <c r="F23" s="1" t="inlineStr">
         <is>
-          <t>https://www.konvy.com/mizumi/mizumi-b3-aha-intense-white-body-booster-250g-80698.html</t>
+          <t>https://www.konvy.com/in2it/in2it-primer%2b%2b-15g-pmp-98196.html</t>
         </is>
       </c>
       <c r="G23" s="1" t="inlineStr">
         <is>
-          <t>https://s2.konvy.com/static/team/2022/1230/16723909419604.jpg</t>
+          <t>https://s2.konvy.com/static/team/2024/0530/17170624152346.jpg.webp</t>
         </is>
       </c>
       <c r="H23" s="1" t="inlineStr">
@@ -1137,14 +1137,14 @@
       </c>
       <c r="I23" s="1" t="inlineStr">
         <is>
-          <t>Mizumi B3 AHA Intense White Body Booster 250g Recover damaged skin to be super popular with body serum, bright skin like face serum from Mizumi with concentrated vitamin B3 and AHA, helping to nourish the skin deeply, enhance the skin layer and adjust the skin. to be smooth and clear</t>
+          <t>In2It Primer++ 15g #PMP Light velvet primer from In2It helps conceal pores. The face looks smooth and radiant. Helps make-up last long all day.</t>
         </is>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>1716265880-23</t>
+          <t>1717926366-23</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="E24" s="1" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t/>
         </is>
       </c>
       <c r="F24" s="1" t="inlineStr">
         <is>
-          <t>https://www.konvy.com/eucerin/eucerin-sun-dry-touch-acne-oil-control-face-spf50%2b-pa%2b%2b%2b%2b%c2%a050ml-28213.html</t>
+          <t>https://www.konvy.com/kiehls/kiehl%27s-clearly-corrective-dark-spot-solution-50ml-%28-expiration-date-%3a-2025.03.01-%29--29210.html</t>
         </is>
       </c>
       <c r="G24" s="1" t="inlineStr">
         <is>
-          <t>https://s2.konvy.com/static/team/2022/1004/16648525364077.jpg</t>
+          <t>https://s2.konvy.com/static/team/2022/0505/16517376045761.jpg.webp</t>
         </is>
       </c>
       <c r="H24" s="1" t="inlineStr">
@@ -1184,14 +1184,14 @@
       </c>
       <c r="I24" s="1" t="inlineStr">
         <is>
-          <t>Eucerin Sun Dry Touch Acne Oil Control Face SPF50+ PA++++ 50ml Oil-control sunscreen For oily and acne-prone skin from Eucerin, controls oiliness for up to 12 hours, protecting all rays, both UVA / UVB, effectively reducing acne, blemishes, sunburns deeply embedded.</t>
+          <t>Kiehl's Clearly Corrective Dark Spot Solution 50ml, the hottest dark spot lightening serum from Kiehls. Adjust the skin color to look bright and consistent. and combines the power of skin rejuvenation from vitamin C extract Helps to shed old skin cells Gently reveals new skin ( Expiration Date : 2025.03.01 )</t>
         </is>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>1716265882-24</t>
+          <t>1717926368-24</t>
         </is>
       </c>
       <c r="B25" s="1" t="inlineStr">
@@ -1216,12 +1216,12 @@
       </c>
       <c r="F25" s="1" t="inlineStr">
         <is>
-          <t>https://www.konvy.com/dior/dior-miss-dior-blooming-bouquet-edt-5ml-%5bnew-version%5d-84189.html</t>
+          <t>https://www.konvy.com/puricas/puricas-dragon%27s-bloold-scar-gel-3g-93599.html</t>
         </is>
       </c>
       <c r="G25" s="1" t="inlineStr">
         <is>
-          <t>https://s2.konvy.com/static/team/2023/0517/16843164648521.jpg</t>
+          <t>https://s2.konvy.com/static/team/2024/0105/17044250128902.jpg.webp</t>
         </is>
       </c>
       <c r="H25" s="1" t="inlineStr">
@@ -1231,14 +1231,14 @@
       </c>
       <c r="I25" s="1" t="inlineStr">
         <is>
-          <t>Dior Miss Dior Blooming Bouquet EDT 5ml [New Version] Brighten up with this fresh, light fragrance for women from Dior. Created like a soft fragrance from the newly blooming bouquet It felt as if the bright and dazzling Miss Dior was back here.</t>
+          <t>Puricas Dragon's Bloold Scar Gel 3g scar gel from Dragon's Blood extract. From Pureika's Helps restore damaged skin, heals skin and wounds, and reduces dark spots. and redness caused by acne</t>
         </is>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>1716265884-25</t>
+          <t>1717926370-25</t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
@@ -1258,17 +1258,17 @@
       </c>
       <c r="E26" s="1" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t/>
         </is>
       </c>
       <c r="F26" s="1" t="inlineStr">
         <is>
-          <t>https://www.konvy.com/yves-rocher/yves-rocher-anti-dandruff-with-organic-peppermint-treatment-shampoo-300ml-89748.html</t>
+          <t>https://www.konvy.com/atopalm/atopalm-soothing-gel-lotion-120ml-81644.html</t>
         </is>
       </c>
       <c r="G26" s="1" t="inlineStr">
         <is>
-          <t>https://s2.konvy.com/static/team/2023/0905/16939117033091.jpg</t>
+          <t>https://s2.konvy.com/static/team/2023/0213/16762754524417.jpg.webp</t>
         </is>
       </c>
       <c r="H26" s="1" t="inlineStr">
@@ -1278,14 +1278,14 @@
       </c>
       <c r="I26" s="1" t="inlineStr">
         <is>
-          <t>Yves Rocher Anti-Dandruff With Organic Peppermint Treatment Shampoo 300ml. Shampoo from Yves Rocher eliminates chronic dandruff problems and prevents recurrence with organic peppermint water from La Gazili and natural ingredients. 94% Free from sulfates and silicones.</t>
+          <t>ATOPALM Soothing Gel Lotion 120ml Facial and body lotion formula MLEâ (Multi Lamellar Emulsion) from ATOPALM helps to strengthen the epidermis of the skin. Keeps the skin moisturized for up to 48 hours with Neo Farm's patented ceramide, 5 types of amino acids and hyaluronic acid.</t>
         </is>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>1716265887-26</t>
+          <t>1717926373-26</t>
         </is>
       </c>
       <c r="B27" s="1" t="inlineStr">
@@ -1310,12 +1310,12 @@
       </c>
       <c r="F27" s="1" t="inlineStr">
         <is>
-          <t>https://www.konvy.com/skintific/skintific-5x-ceramide-barrier-moisturizer-gel-80g-96455.html</t>
+          <t>https://www.konvy.com/clarins/clarins-double-serum-complete-age-control-concentrate-50ml-23312.html</t>
         </is>
       </c>
       <c r="G27" s="1" t="inlineStr">
         <is>
-          <t>https://s2.konvy.com/static/team/2024/0412/17128910475963.jpg</t>
+          <t>https://s2.konvy.com/static/team/2018/0104/15150379915494.jpg.webp</t>
         </is>
       </c>
       <c r="H27" s="1" t="inlineStr">
@@ -1325,14 +1325,14 @@
       </c>
       <c r="I27" s="1" t="inlineStr">
         <is>
-          <t>SKINTIFIC 5X Ceramide Barrier Moisturizer Gel 80g Light texture moisturizer from Skintific provides high moisture. With ceramides to help strengthen the skin's protective barrier. Combines hyaluronic acid, Centella asiatica, and marine collagen. Make your skin healthy</t>
+          <t>Clarins Double Serum Complete Age Control Concentrate 50ml stands for youthful skin. With a highly concentrated anti-aging serum from Clarins with extracts from turmeric and 20 natural plants, it helps to cope with all signs of aging! Reduces noticeable signs of skin aging Restores clarity and firmness Keep the skin youthful for a long time.</t>
         </is>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>1716265889-27</t>
+          <t>1717926380-27</t>
         </is>
       </c>
       <c r="B28" s="1" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="F28" s="1" t="inlineStr">
         <is>
-          <t>https://www.konvy.com/biotherm/biotherm-life-plankton-clear-essence-200ml-33721.html</t>
+          <t>https://www.konvy.com/lancome/lancome-miracle-edp-100ml-84665.html</t>
         </is>
       </c>
       <c r="G28" s="1" t="inlineStr">
         <is>
-          <t>https://s2.konvy.com/static/team/2024/0124/17060937515381.jpg</t>
+          <t>https://s2.konvy.com/static/team/2023/0516/16842117154749.jpg</t>
         </is>
       </c>
       <c r="H28" s="1" t="inlineStr">
@@ -1372,14 +1372,14 @@
       </c>
       <c r="I28" s="1" t="inlineStr">
         <is>
-          <t>Biotherm LIfe Plankton Clear Essence 200ml new formula! plankton sap from Biotherm The texture is light like water, absorbs quickly, contains life. The 5% concentration of plankton helps the skin look radiant. Pores tighten. like new, youthful skin</t>
+          <t>Lancome Miracle EDP 100ml, a classic women's perfume. Create a lasting impression from Lancome, a sensual and spicy floral aroma. Help add freshness to the dawn of a bright new day. Life is Miracle!!</t>
         </is>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>1716265891-28</t>
+          <t>1717926382-28</t>
         </is>
       </c>
       <c r="B29" s="1" t="inlineStr">
@@ -1404,12 +1404,12 @@
       </c>
       <c r="F29" s="1" t="inlineStr">
         <is>
-          <t>https://www.konvy.com/the-ordinary/the-ordinary-alpha-arbutin-2-%2b-ha-serum-30ml-24342.html</t>
+          <t>https://www.konvy.com/gravich/gravich-retinol-complex-concentrate-serum-30ml-87752.html</t>
         </is>
       </c>
       <c r="G29" s="1" t="inlineStr">
         <is>
-          <t/>
+          <t>https://s2.konvy.com/static/team/2023/0706/16886378138566.jpg.webp</t>
         </is>
       </c>
       <c r="H29" s="1" t="inlineStr">
@@ -1419,14 +1419,14 @@
       </c>
       <c r="I29" s="1" t="inlineStr">
         <is>
-          <t>The Ordinary Alpha Arbutin 2% + HA Serum 30ml, a water-based serum specifically designed to reduce the appearance of dark spots and uneven skin tone. Combines a high concentration of pure alpha arbutin with hyaluronic acid. Reduce dark spots Serum texture absorbs quickly. Helps the skin look radiant. Acne scars appear faded. Skin looks healthy</t>
+          <t>Gravich Retinol Complex Concentrate Serum 30ml Say goodbye to wrinkles with an alternative vitamin A serum. The formula is designed for people with skin problems, wrinkles, and sensitive skin. It can be used. Using a group of 3 forms of Retinol derivatives in high concentration. 1.7% Retinoids Complex in the highest ratio unique to Gravish.</t>
         </is>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>1716265894-29</t>
+          <t>1717926384-29</t>
         </is>
       </c>
       <c r="B30" s="1" t="inlineStr">
@@ -1451,12 +1451,12 @@
       </c>
       <c r="F30" s="1" t="inlineStr">
         <is>
-          <t>https://www.konvy.com/tsubaki/tsubaki-premium-ex-repair-mask-180g-47164.html</t>
+          <t>https://www.konvy.com/nu-formula/nu-formula-oil-purifying-cleansing-water-510ml-45010.html</t>
         </is>
       </c>
       <c r="G30" s="1" t="inlineStr">
         <is>
-          <t>https://s2.konvy.com/static/team/2023/0719/16897412477203.jpg</t>
+          <t>https://s2.konvy.com/static/team/2023/1116/17001136228149.jpg.webp</t>
         </is>
       </c>
       <c r="H30" s="1" t="inlineStr">
@@ -1466,14 +1466,14 @@
       </c>
       <c r="I30" s="1" t="inlineStr">
         <is>
-          <t>Tsubaki Premium EX Repair Mask 180g Reveal beautiful, shiny hair with a new innovative rinse-off hair mask from Tsubaki. Enriched with camellia oil, pearl protein and royal jelly, combining innovations that help deeply absorb nutrients into the hair. Ready to store nutrients in the hair strand by strand. Therefore helping to nourish the hair to look beautiful and healthy. as if being pampered by a salon</t>
+          <t>Nu Formula Oil Purifying Cleansing Water 510ml Cut off all acne cycles! with cleansing micellar For combination-oily skin from Nu Formula, remove makeup and oil deeply from the first sheet. Cleans without damaging the natural coating. And add moisture with Hyaluron, making the skin not dry and tight. Continue to use, feel less acne.</t>
         </is>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>1716265896-30</t>
+          <t>1717926387-30</t>
         </is>
       </c>
       <c r="B31" s="1" t="inlineStr">
@@ -1493,17 +1493,17 @@
       </c>
       <c r="E31" s="1" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t/>
         </is>
       </c>
       <c r="F31" s="1" t="inlineStr">
         <is>
-          <t>https://www.konvy.com/eucerin/eucerin-b1g1-radiance-lift-3d-serum-30ml-%2b-elascity-night-cream-50ml-%5bfree%21-eye-cream-spf20-15ml%5d-93523.html</t>
+          <t>https://www.konvy.com/estee-lauder/estee-lauder-advanced-night-repair-synchronized-multi-recovery-complex-7ml-51998.html</t>
         </is>
       </c>
       <c r="G31" s="1" t="inlineStr">
         <is>
-          <t>https://s2.konvy.com/static/team/2023/1219/17029795063611.jpg</t>
+          <t/>
         </is>
       </c>
       <c r="H31" s="1" t="inlineStr">
@@ -1513,14 +1513,14 @@
       </c>
       <c r="I31" s="1" t="inlineStr">
         <is>
-          <t>Eucerin B1G1 Radiance-Lift 3D Serum 30ml + Elascity Night Cream 50ml [Free! Eye Cream SPF20 15ml] Set of facial skin care products from Eucerin with hyaluron. Helps fill deep wrinkles Helps make your skin flexible, firm, and youthful. Free! Eye care products</t>
+          <t>Estee Lauder Advanced Night Repair Synchronized Multi-Recovery Complex 7ml A breakthrough serum from Estee Lauder with ChronoluxTM Power Signal technology to help restore the look of fine lines to fade. Optimized for skin that feels firmer than ever. The lightweight serum is quickly absorbed into the skin. Straight in to help reduce the signs of aging skin in many ways. For skin that looks healthier, younger and more alive.</t>
         </is>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>1716265898-31</t>
+          <t>1717926389-31</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
@@ -1540,17 +1540,17 @@
       </c>
       <c r="E32" s="1" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t/>
         </is>
       </c>
       <c r="F32" s="1" t="inlineStr">
         <is>
-          <t>https://www.konvy.com/swisse/swisse-astaxanthin-%2b-gluta-30-capsules-83583.html</t>
+          <t>https://www.konvy.com/vaseline/%5b%e0%b9%81%e0%b8%9e%e0%b9%87%e0%b8%84%e0%b8%84%e0%b8%b9%e0%b9%88%5d-vaseline-healthy-bright-gluta-hya-serum-burst-lotion-dewy-radiance-300ml-93312.html</t>
         </is>
       </c>
       <c r="G32" s="1" t="inlineStr">
         <is>
-          <t>https://s2.konvy.com/static/team/2023/1231/17040405963001.jpg</t>
+          <t>https://s2.konvy.com/static/team/2024/0109/17047950014025.jpg.webp</t>
         </is>
       </c>
       <c r="H32" s="1" t="inlineStr">
@@ -1560,14 +1560,14 @@
       </c>
       <c r="I32" s="1" t="inlineStr">
         <is>
-          <t>SWISSE Astaxanthin + Gluta 30 Capsules, astaxanthin and glutathione dietary supplement, 30 tablets, quality formula containing 6 mg of astaxanthin, 50 mg of L-glutathione. .,Vitamin C 20 mg., Vitamin E 7.5IU, Nicotinamide 5 mg.</t>
+          <t>[Double pack] Vaseline Healthy Bright Gluta-Hya Serum Burst Lotion Dewy Radiance 300ml. Body lotion from Vaseline, light texture, breaks down into water. Absorbed into the skin Not sticky. Make the skin look bright, juicy, and glowing.</t>
         </is>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>1716265901-32</t>
+          <t>1717926392-32</t>
         </is>
       </c>
       <c r="B33" s="1" t="inlineStr">
@@ -1592,12 +1592,12 @@
       </c>
       <c r="F33" s="1" t="inlineStr">
         <is>
-          <t>https://www.konvy.com/cerave/cerave-resurfacing-retinol-serum-30ml-94006.html</t>
+          <t>https://www.konvy.com/nu-formula/nu-formula-derma-facial-cotton-200pcs-23819.html</t>
         </is>
       </c>
       <c r="G33" s="1" t="inlineStr">
         <is>
-          <t>https://s2.konvy.com/static/team/2024/0116/17053803728459.jpg</t>
+          <t>https://s2.konvy.com/static/team/2024/0101/17040424475209.jpg.webp</t>
         </is>
       </c>
       <c r="H33" s="1" t="inlineStr">
@@ -1607,14 +1607,14 @@
       </c>
       <c r="I33" s="1" t="inlineStr">
         <is>
-          <t>CeraVe Resurfacing Retinol Serum 30ml moves on acne scars to smooth skin with facial skin care products for those who have problems with dark spots and acne scars from CeraVe, strengthening the skin barrier. Resulting in smooth, even-looking skin, and without perfume and parabens. Sensitive skin can use it.</t>
+          <t>Nu Formula Derma Facial Cotton 200pcs Cotton pads that understand women. that selects the best cotton fibers around the world Special soft texture, does not hurt the skin, nourishes the skin, helps to gently wipe off the makeup on the face.</t>
         </is>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>1716265903-33</t>
+          <t>1717926394-33</t>
         </is>
       </c>
       <c r="B34" s="1" t="inlineStr">
@@ -1639,12 +1639,12 @@
       </c>
       <c r="F34" s="1" t="inlineStr">
         <is>
-          <t>https://www.konvy.com/gravich/gravich-triple-vitamin-c-booster-serum-30ml-48037.html</t>
+          <t>https://www.konvy.com/oni/oni-multi-functional-makeup-brush-set-smoky-rose-%5b10pcs%5d-65331.html</t>
         </is>
       </c>
       <c r="G34" s="1" t="inlineStr">
         <is>
-          <t>https://s2.konvy.com/static/team/2024/0101/17040420033552.jpg</t>
+          <t>https://s2.konvy.com/static/team/2023/0329/16800770672318.jpg.webp</t>
         </is>
       </c>
       <c r="H34" s="1" t="inlineStr">
@@ -1654,14 +1654,14 @@
       </c>
       <c r="I34" s="1" t="inlineStr">
         <is>
-          <t>GRAVICH Triple Vitamin C Booster Serum 30ml Rejuvenate your skin with concentrated vitamin C serum from Gravich that stimulates the epidermis layer to gently exfoliate. For glowing skin, wrinkles, dark spots look faded. along with enhancing and stimulating the process of creating collagen Contains high antioxidants Make the skin healthy and bright.</t>
+          <t>Oni Multi Functional Makeup Brush Set #Smoky Rose [10pcs] allows you to apply makeup perfectly in every step. With a set of 10 pink makeup brushes from Oni, synthetic bristles. give a soft touch Does not cut or irritate the skin Comes with a pink leather bag.</t>
         </is>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>1716265905-34</t>
+          <t>1717926396-34</t>
         </is>
       </c>
       <c r="B35" s="1" t="inlineStr">
@@ -1686,12 +1686,12 @@
       </c>
       <c r="F35" s="1" t="inlineStr">
         <is>
-          <t>https://www.konvy.com/anua/anua-heartleaf-77-soothing-toner-250ml-49595.html</t>
+          <t>https://www.konvy.com/sk-ii/sk-ii-facial-treatment-essence-30ml-%28-expiration-date-%3a-2025.03.03-%29--2349.html</t>
         </is>
       </c>
       <c r="G35" s="1" t="inlineStr">
         <is>
-          <t>https://s2.konvy.com/static/team/2023/1017/16975166198509.jpg</t>
+          <t>https://s2.konvy.com/static/team/2023/0222/16770521617283.jpg.webp</t>
         </is>
       </c>
       <c r="H35" s="1" t="inlineStr">
@@ -1701,14 +1701,14 @@
       </c>
       <c r="I35" s="1" t="inlineStr">
         <is>
-          <t>ANUA Heartleaf 77% Soothing Toner 250ml The hottest toner from the Twitter world that anyone who has tried it will love it from Anua to help soothe the skin and reduce inflammation. with extracts of heart leaf to 77% Light texture. Free from fragrances and harmful chemicals Suitable for all skin types especially irritated skin Acne and rashes</t>
+          <t>SK-II Facial Treatment Essence 30ml The ever-popular product with essence from SK-II with Pitera ingredients to help balance the skin. Ready to exfoliate skin cells for you to feel smooth, soft, moisturized, and look more radiant. ( Expiration Date : 2025.03.03 )</t>
         </is>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>1716265908-35</t>
+          <t>1717926399-35</t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr">
@@ -1733,12 +1733,12 @@
       </c>
       <c r="F36" s="1" t="inlineStr">
         <is>
-          <t>https://www.konvy.com/the-ordinary/the-ordinary-niacinamide-10-%2b-zinc-1-30ml-26957.html</t>
+          <t>https://www.konvy.com/origins/origins-dr.andrew-weil-for-origins-mega-mushroom-relief-%26-resilience-soothing-treatment-lotion-%28new-advanced-formula%29-200ml-%28-expiration-date-%3a-2025.02.01-%29--75049.html</t>
         </is>
       </c>
       <c r="G36" s="1" t="inlineStr">
         <is>
-          <t/>
+          <t>https://s2.konvy.com/static/team/2023/0407/16808390166100.jpg.webp</t>
         </is>
       </c>
       <c r="H36" s="1" t="inlineStr">
@@ -1748,14 +1748,14 @@
       </c>
       <c r="I36" s="1" t="inlineStr">
         <is>
-          <t>The Ordinary Niacinamide 10% + Zinc 1% 30ml water-based serum From The Ordinary Contains niacinamide 10% and Zinc PCA 1% help increase the radiance of the skin. Increase smoothness and strengthen the skin's protective barrier</t>
+          <t>Origins Dr.Andrew Weil For Origins Mega-Mushroom Relief &amp; Resilience Soothing Treatment Lotion (New Advanced Formula) 200ml The newest treatment lotion formula, the #1 best seller from Origins. Light texture, easily absorbed into the skin. deep and fast Reveals smooth looking skin Helps skin color look even. Say goodbye to dullness Reveals glowing skin ( Expiration Date : 2025.02.01 )</t>
         </is>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>1716265910-36</t>
+          <t>1717926404-36</t>
         </is>
       </c>
       <c r="B37" s="1" t="inlineStr">
@@ -1780,12 +1780,12 @@
       </c>
       <c r="F37" s="1" t="inlineStr">
         <is>
-          <t>https://www.konvy.com/joji-secret-young/joji-secret-young-charcoal-keratin-treatment-mask-300g-70359.html</t>
+          <t>https://www.konvy.com/mizumi/mizumi-uv-water-serum-spf50%2bpa%2b%2b%2b%2b-40g-31292.html</t>
         </is>
       </c>
       <c r="G37" s="1" t="inlineStr">
         <is>
-          <t>https://s2.konvy.com/static/team/2024/0304/17095225298396.jpg</t>
+          <t>https://s2.konvy.com/static/team/2021/0430/16197760966662.jpg.webp</t>
         </is>
       </c>
       <c r="H37" s="1" t="inlineStr">
@@ -1795,14 +1795,14 @@
       </c>
       <c r="I37" s="1" t="inlineStr">
         <is>
-          <t>JOJI Secret Young Charcoal Keratin Treatment Mask 300g Keratin hair treatment from Joji Secret Young helps restore damaged hair to be soft, smooth, and shiny. Charcoal helps detox chemical residue in the hair. Combines natural values to help adjust hair to be voluminous, easy to style, and reduce shedding.</t>
+          <t>Mizumi UV Water Serum SPF50+/PA++++ 40g Water-based sunscreen for sensitive skin, maximum protection but gentle as water from Mizumi, blue tube for daily use. light texture non sticky Does not leave stains after setting reflects the rays UVA1/UVA2/UVB from the skin and can be used by everyone in the family.</t>
         </is>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>1716265913-37</t>
+          <t>1717926406-37</t>
         </is>
       </c>
       <c r="B38" s="1" t="inlineStr">
@@ -1827,12 +1827,12 @@
       </c>
       <c r="F38" s="1" t="inlineStr">
         <is>
-          <t>https://www.konvy.com/the-ordinary/the-ordinary-retinol-1-in-squalane-30ml-67168.html</t>
+          <t>https://www.konvy.com/the-ordinary/the-ordinary-niacinamide-10-%2b-zinc-1-30ml-26957.html</t>
         </is>
       </c>
       <c r="G38" s="1" t="inlineStr">
         <is>
-          <t/>
+          <t>https://s2.konvy.com/static/team/2023/0825/16929373538131.jpg.webp</t>
         </is>
       </c>
       <c r="H38" s="1" t="inlineStr">
@@ -1842,14 +1842,14 @@
       </c>
       <c r="I38" s="1" t="inlineStr">
         <is>
-          <t>The Ordinary Retinol 1% in Squalane 30ml, a nourishing serum from The Odinari, contains highly stable 1% pure retinol. Helps reduce wrinkles smooth skin tighten pores revealing clear skin and skin color to look consistent</t>
+          <t>The Ordinary Niacinamide 10% + Zinc 1% 30ml water-based serum From The Ordinary Contains niacinamide 10% and Zinc PCA 1% help increase the radiance of the skin. Increase smoothness and strengthen the skin's protective barrier</t>
         </is>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>1716265915-38</t>
+          <t>1717926408-38</t>
         </is>
       </c>
       <c r="B39" s="1" t="inlineStr">
@@ -1874,7 +1874,7 @@
       </c>
       <c r="F39" s="1" t="inlineStr">
         <is>
-          <t>https://www.konvy.com/the-ordinary/the-ordinary-hyaluronic-acid-2-%2b-b5-30ml-32325.html</t>
+          <t>https://www.konvy.com/cosrx/cosrx-advanced-snail-96-mucin-power-essence-100ml-65926.html</t>
         </is>
       </c>
       <c r="G39" s="1" t="inlineStr">
@@ -1889,14 +1889,14 @@
       </c>
       <c r="I39" s="1" t="inlineStr">
         <is>
-          <t>The Ordinary Hyaluronic Acid 2% + B5 30ml further nourishes, no need to wait for pre-order! Add moisture to the max. With concentrated serum from The Ordinary with hyaluronic acid. 2% + B5 increases moisture. Makes the skin smoother and plump.</t>
+          <t>COSRX Advanced Snail 96 Mucin Power Essence 100ml Korean snail slime essence from Cos RX Enriched with 96% snail mucus extract to protect and replenish moisture within the skin. Rejuvenate the skin to be smooth and bright.</t>
         </is>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>1716265917-39</t>
+          <t>1717926411-39</t>
         </is>
       </c>
       <c r="B40" s="1" t="inlineStr">
@@ -1916,17 +1916,17 @@
       </c>
       <c r="E40" s="1" t="inlineStr">
         <is>
-          <t/>
+          <t>Free</t>
         </is>
       </c>
       <c r="F40" s="1" t="inlineStr">
         <is>
-          <t>https://www.konvy.com/the-ordinary/the-ordinary-niacinamide-10%2bzinc-1-60ml-54517.html</t>
+          <t>https://www.konvy.com/nivea/nivea-extra-white-repair-%26-protect-lotion-525ml-61163.html</t>
         </is>
       </c>
       <c r="G40" s="1" t="inlineStr">
         <is>
-          <t/>
+          <t>https://s2.konvy.com/static/team/2023/0505/16832675432325.jpg.webp</t>
         </is>
       </c>
       <c r="H40" s="1" t="inlineStr">
@@ -1936,14 +1936,14 @@
       </c>
       <c r="I40" s="1" t="inlineStr">
         <is>
-          <t>The Ordinary Niacinamide 10%+Zinc 1% 60ml A lightweight, fast-absorbing liquid texture serum from The Odinari. Contains vitamin B3 and zinc to help reduce wrinkles. red marks from acne tighten pores with oil control on the face</t>
+          <t>NIVEA Extra White Repair &amp; Protect Lotion 525ml for clear skin, do not come back dark again with body lotion from Nivea with Deep White Essence technology, whitening, extracting small particles, combining UV filters SPF30, revitalizing. Dark skin accumulates deep into the skin cells. Helps protect skin from sun damage</t>
         </is>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>1716265920-40</t>
+          <t>1717926413-40</t>
         </is>
       </c>
       <c r="B41" s="1" t="inlineStr">
@@ -1963,34 +1963,47 @@
       </c>
       <c r="E41" s="1" t="inlineStr">
         <is>
-          <t/>
+          <t>SASI Girls Can Be Unique Eyeshadow Palette 6g #02 Unique Orange
+            4.7 / 5.0
+                                                        ฿89
+                                                    - 44%
+        ฿159</t>
         </is>
       </c>
       <c r="F41" s="1" t="inlineStr">
         <is>
-          <t>https://www.konvy.com/gravich/gravich-retinol-complex-concentrate-serum-30ml-87752.html</t>
+          <t>https://www.konvy.com/sasi/sasi-girls-can-be-unique-eyeshadow-palette-6g-02-unique-orange-71150.html</t>
         </is>
       </c>
       <c r="G41" s="1" t="inlineStr">
         <is>
-          <t>https://s2.konvy.com/static/team/2023/0706/16886378138566.jpg</t>
+          <t>https://s2.konvy.com/static/team/2022/0405/16491541985944.jpg.webp</t>
         </is>
       </c>
       <c r="H41" s="1" t="inlineStr">
         <is>
-          <t/>
+          <t>&lt;li title="#01" onmouseover="relatedOption(71149)" onmouseout="relatedOption(71150)"&gt;
+                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/sasi/sasi-girls-can-be-unique-eyeshadow-palette-6g-01-unique-pink-71149.html')" title="#01" class="ky-d ky-pointer"&gt;
+                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0330/16801666097798.jpg" alt="#01"&gt;
+                                        &lt;/a&gt;
+                                    &lt;/li&gt;
+                                                                                                    &lt;li class="active" selected="" title="#02" onmouseover="relatedOption(71150)" onmouseout="relatedOption(71150)"&gt;
+                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/sasi/sasi-girls-can-be-unique-eyeshadow-palette-6g-02-unique-orange-71150.html')" title="#02" class="ky-d ky-pointer"&gt;
+                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0330/16801666048816.jpg" alt="#02"&gt;
+                                        &lt;/a&gt;
+                                    &lt;/li&gt;</t>
         </is>
       </c>
       <c r="I41" s="1" t="inlineStr">
         <is>
-          <t>Gravich Retinol Complex Concentrate Serum 30ml Say goodbye to wrinkles with an alternative vitamin A serum. The formula is designed for people with skin problems, wrinkles, and sensitive skin. It can be used. Using a group of 3 forms of Retinol derivatives in high concentration. 1.7% Retinoids Complex in the highest ratio unique to Gravish.</t>
+          <t>SASI Girls Can Be Unique Eyeshadow Palette 6g #02 Unique Orange 4 color 3 texture eyeshadow palette from Sasi, easy to carry, stand out and be yourself in every look. day and night There are both matte, shimmer and jelly mixed with glitter.</t>
         </is>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>1716265946-41</t>
+          <t>1717926416-41</t>
         </is>
       </c>
       <c r="B42" s="1" t="inlineStr">
@@ -2024,7 +2037,7 @@
       </c>
       <c r="G42" s="1" t="inlineStr">
         <is>
-          <t/>
+          <t>https://s2.konvy.com/static/team/2022/0405/16491541651133.jpg.webp</t>
         </is>
       </c>
       <c r="H42" s="1" t="inlineStr">
@@ -2047,66 +2060,6 @@
         </is>
       </c>
     </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="1" t="inlineStr">
-        <is>
-          <t>1716265949-42</t>
-        </is>
-      </c>
-      <c r="B43" s="1" t="inlineStr">
-        <is>
-          <t>https://www.konvy.com/list/eyeshadow/?filter_params=-1:2998</t>
-        </is>
-      </c>
-      <c r="C43" s="1" t="inlineStr">
-        <is>
-          <t>"SASI、Eyeshadow"</t>
-        </is>
-      </c>
-      <c r="D43" s="1" t="inlineStr">
-        <is>
-          <t>https://s2.konvy.com/static/category/2020/0416/15870259543485_240x240.jpg</t>
-        </is>
-      </c>
-      <c r="E43" s="1" t="inlineStr">
-        <is>
-          <t>SASI Girls Can Be Unique Eyeshadow Palette 6g #02 Unique Orange
-            4.7 / 5.0
-                                                        ฿89
-                                                    - 44%
-        ฿159</t>
-        </is>
-      </c>
-      <c r="F43" s="1" t="inlineStr">
-        <is>
-          <t>https://www.konvy.com/sasi/sasi-girls-can-be-unique-eyeshadow-palette-6g-02-unique-orange-71150.html</t>
-        </is>
-      </c>
-      <c r="G43" s="1" t="inlineStr">
-        <is>
-          <t>https://s2.konvy.com/static/team/2022/0405/16491541985944.jpg</t>
-        </is>
-      </c>
-      <c r="H43" s="1" t="inlineStr">
-        <is>
-          <t>&lt;li title="#01" onmouseover="relatedOption(71149)" onmouseout="relatedOption(71150)"&gt;
-                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/sasi/sasi-girls-can-be-unique-eyeshadow-palette-6g-01-unique-pink-71149.html')" title="#01" class="ky-d ky-pointer"&gt;
-                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0330/16801666097798.jpg" alt="#01"&gt;
-                                        &lt;/a&gt;
-                                    &lt;/li&gt;
-                                                                                                    &lt;li class="active" selected="" title="#02" onmouseover="relatedOption(71150)" onmouseout="relatedOption(71150)"&gt;
-                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/sasi/sasi-girls-can-be-unique-eyeshadow-palette-6g-02-unique-orange-71150.html')" title="#02" class="ky-d ky-pointer"&gt;
-                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0330/16801666048816.jpg" alt="#02"&gt;
-                                        &lt;/a&gt;
-                                    &lt;/li&gt;</t>
-        </is>
-      </c>
-      <c r="I43" s="1" t="inlineStr">
-        <is>
-          <t>SASI Girls Can Be Unique Eyeshadow Palette 6g #02 Unique Orange 4 color 3 texture eyeshadow palette from Sasi, easy to carry, stand out and be yourself in every look. day and night There are both matte, shimmer and jelly mixed with glitter.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
 </worksheet>
 </file>